--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yura\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projekt2\Projekt2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3623D236-431D-4E31-A219-A0210F219EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A991A95-D8C4-4286-8216-C86382894EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="550" yWindow="50" windowWidth="15650" windowHeight="9930" activeTab="1" xr2:uid="{86400457-95FE-432E-B68F-B358E31C3AB8}"/>
+    <workbookView xWindow="0" yWindow="270" windowWidth="15650" windowHeight="9930" activeTab="2" xr2:uid="{86400457-95FE-432E-B68F-B358E31C3AB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>x</t>
   </si>
@@ -2206,6 +2207,695 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист3!$B$2:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2777777777777786</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.2777777777777786</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.611111111111111</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.944444444444445</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.944444444444445</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.611111111111111</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.2777777777777786</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.4444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.4444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.2777777777777786</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6849-450C-BD76-76449BC50971}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист3!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист3!$C$2:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6849-450C-BD76-76449BC50971}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист3!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист3!$D$2:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6849-450C-BD76-76449BC50971}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист3!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист3!$E$2:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.875</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.875</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.875</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.875</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6849-450C-BD76-76449BC50971}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист3!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист3!$F$2:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="8">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6849-450C-BD76-76449BC50971}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист3!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист3!$G$2:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="8">
+                  <c:v>-8.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-8.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6849-450C-BD76-76449BC50971}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1727120159"/>
+        <c:axId val="1727114751"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1727120159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1727114751"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1727114751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1727120159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2286,6 +2976,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2952,6 +3682,522 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3367,6 +4613,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6442898F-65DE-4C11-AFB4-F3B633684629}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF051824-B0ED-41B9-B209-EF95A1412601}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4930,8 +6217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB5DA38-0801-4A66-AC8B-3EEFC98D47FA}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5280,4 +6567,360 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{323479EE-ABC2-4182-B806-1E74908B70C6}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>-12</v>
+      </c>
+      <c r="B2" cm="1">
+        <f t="array" ref="B2:B26">-1/18*POWER(A2:A26,2)+12</f>
+        <v>4</v>
+      </c>
+      <c r="D2" cm="1">
+        <f t="array" ref="D2:D10">-1/8*(POWER(A2:A10+8,2))+6</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>-11</v>
+      </c>
+      <c r="B3">
+        <v>5.2777777777777786</v>
+      </c>
+      <c r="D3">
+        <v>4.875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>-10</v>
+      </c>
+      <c r="B4">
+        <v>6.4444444444444446</v>
+      </c>
+      <c r="D4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>-9</v>
+      </c>
+      <c r="B5">
+        <v>7.5</v>
+      </c>
+      <c r="D5">
+        <v>5.875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>-8</v>
+      </c>
+      <c r="B6">
+        <v>8.4444444444444446</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>-7</v>
+      </c>
+      <c r="B7">
+        <v>9.2777777777777786</v>
+      </c>
+      <c r="D7">
+        <v>5.875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>-6</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>-5</v>
+      </c>
+      <c r="B9">
+        <v>10.611111111111111</v>
+      </c>
+      <c r="D9">
+        <v>4.875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>-4</v>
+      </c>
+      <c r="B10">
+        <v>11.111111111111111</v>
+      </c>
+      <c r="C10" cm="1">
+        <f t="array" ref="C10:C18">-1/8*POWER(A10:A18,2)+6</f>
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="F10" cm="1">
+        <f t="array" ref="F10:F14">2*(POWER(A10:A14+3,2))-9</f>
+        <v>-7</v>
+      </c>
+      <c r="G10" cm="1">
+        <f t="array" ref="G10:G14">1.5*(POWER(A10:A14+3,2))-10</f>
+        <v>-8.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>-3</v>
+      </c>
+      <c r="B11">
+        <v>11.5</v>
+      </c>
+      <c r="C11">
+        <v>4.875</v>
+      </c>
+      <c r="F11">
+        <v>-9</v>
+      </c>
+      <c r="G11">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>-2</v>
+      </c>
+      <c r="B12">
+        <v>11.777777777777779</v>
+      </c>
+      <c r="C12">
+        <v>5.5</v>
+      </c>
+      <c r="F12">
+        <v>-7</v>
+      </c>
+      <c r="G12">
+        <v>-8.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>-1</v>
+      </c>
+      <c r="B13">
+        <v>11.944444444444445</v>
+      </c>
+      <c r="C13">
+        <v>5.875</v>
+      </c>
+      <c r="F13">
+        <v>-1</v>
+      </c>
+      <c r="G13">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>11.944444444444445</v>
+      </c>
+      <c r="C15">
+        <v>5.875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>11.777777777777779</v>
+      </c>
+      <c r="C16">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>11.5</v>
+      </c>
+      <c r="C17">
+        <v>4.875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>11.111111111111111</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="E18" cm="1">
+        <f t="array" ref="E18:E26">-1/8*(POWER(A18:A26-8,2))+6</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>10.611111111111111</v>
+      </c>
+      <c r="E19">
+        <v>4.875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>9.2777777777777786</v>
+      </c>
+      <c r="E21">
+        <v>5.875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>8.4444444444444446</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>7.5</v>
+      </c>
+      <c r="E23">
+        <v>5.875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>6.4444444444444446</v>
+      </c>
+      <c r="E24">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <v>5.2777777777777786</v>
+      </c>
+      <c r="E25">
+        <v>4.875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -5,17 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projekt2\Projekt2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanfo\Документы\GitHub\Project-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A991A95-D8C4-4286-8216-C86382894EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C8579D-9EE9-4A03-A5F5-8DEA8614420B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="270" windowWidth="15650" windowHeight="9930" activeTab="2" xr2:uid="{86400457-95FE-432E-B68F-B358E31C3AB8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="5" xr2:uid="{86400457-95FE-432E-B68F-B358E31C3AB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId4"/>
+    <sheet name="Лист5" sheetId="5" r:id="rId5"/>
+    <sheet name="Накладная " sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>x</t>
   </si>
@@ -89,11 +92,139 @@
   <si>
     <t>y9</t>
   </si>
+  <si>
+    <t>ООО</t>
+  </si>
+  <si>
+    <t>Аленький цветочек</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прайс лист на </t>
+  </si>
+  <si>
+    <t>Курс $</t>
+  </si>
+  <si>
+    <t>№поз</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наим. товара </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палочка волшебная </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зелье приворотное </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода живая </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода мертвая </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ковер - самолет </t>
+  </si>
+  <si>
+    <t>Скатерть - самобранка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сапоги - скороходы </t>
+  </si>
+  <si>
+    <t>Цена($)</t>
+  </si>
+  <si>
+    <t>Цена (руб)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Страна </t>
+  </si>
+  <si>
+    <t>Цена в долларах</t>
+  </si>
+  <si>
+    <t>Цена в рублях</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Англия </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Болгария </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бельгия </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Турция </t>
+  </si>
+  <si>
+    <t>Египет</t>
+  </si>
+  <si>
+    <t>Курс доллара:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">рублей </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наименование товара </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кофеварка </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильник </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Плеер </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тостер </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Телевизов </t>
+  </si>
+  <si>
+    <t>СВЧ печь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Утюг </t>
+  </si>
+  <si>
+    <t>Фен</t>
+  </si>
+  <si>
+    <t>Магнитофон</t>
+  </si>
+  <si>
+    <t>Чайник</t>
+  </si>
+  <si>
+    <t>Цена в $</t>
+  </si>
+  <si>
+    <t>Цена в руб.</t>
+  </si>
+  <si>
+    <t>Количество</t>
+  </si>
+  <si>
+    <t>Сумма в руб.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ [$₽-419]"/>
+    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="167" formatCode="_-[$$-C09]* #,##0.00_-;\-[$$-C09]* #,##0.00_-;_-[$$-C09]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ [$₽-419]_-;\-* #,##0.00\ [$₽-419]_-;_-* &quot;-&quot;??\ [$₽-419]_-;_-@_-"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -104,18 +235,62 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -124,8 +299,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -4977,9 +5188,9 @@
       <selection activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5011,7 +5222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-9</v>
       </c>
@@ -5024,7 +5235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-8.8000000000000007</v>
       </c>
@@ -5035,7 +5246,7 @@
         <v>0.80000000000000071</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-8.6</v>
       </c>
@@ -5046,7 +5257,7 @@
         <v>0.59999999999999964</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-8.4</v>
       </c>
@@ -5057,7 +5268,7 @@
         <v>0.40000000000000036</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-8.1999999999999993</v>
       </c>
@@ -5068,7 +5279,7 @@
         <v>0.19999999999999929</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-8</v>
       </c>
@@ -5079,7 +5290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-7.8</v>
       </c>
@@ -5090,7 +5301,7 @@
         <v>-0.20000000000000018</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-7.6</v>
       </c>
@@ -5101,7 +5312,7 @@
         <v>-0.40000000000000036</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-7.4</v>
       </c>
@@ -5112,7 +5323,7 @@
         <v>-0.59999999999999964</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-7.2</v>
       </c>
@@ -5123,7 +5334,7 @@
         <v>-0.79999999999999982</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-7</v>
       </c>
@@ -5134,7 +5345,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-6.8</v>
       </c>
@@ -5145,7 +5356,7 @@
         <v>-1.2000000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-6.6</v>
       </c>
@@ -5156,7 +5367,7 @@
         <v>-1.4000000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-6.4</v>
       </c>
@@ -5167,7 +5378,7 @@
         <v>-1.5999999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-6.1999999999999993</v>
       </c>
@@ -5178,7 +5389,7 @@
         <v>-1.8000000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-6</v>
       </c>
@@ -5189,7 +5400,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-5.8</v>
       </c>
@@ -5200,7 +5411,7 @@
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-5.6</v>
       </c>
@@ -5211,7 +5422,7 @@
         <v>-2.4000000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-5.4</v>
       </c>
@@ -5222,7 +5433,7 @@
         <v>-2.5999999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-5.1999999999999993</v>
       </c>
@@ -5233,7 +5444,7 @@
         <v>-2.8000000000000007</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-5</v>
       </c>
@@ -5252,7 +5463,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-4.8</v>
       </c>
@@ -5263,7 +5474,7 @@
         <v>-3.7600000000000007</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-4.5999999999999996</v>
       </c>
@@ -5274,7 +5485,7 @@
         <v>-4.4400000000000013</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-4.3999999999999995</v>
       </c>
@@ -5285,7 +5496,7 @@
         <v>-5.0400000000000018</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-4.1999999999999993</v>
       </c>
@@ -5296,7 +5507,7 @@
         <v>-5.5600000000000014</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-4</v>
       </c>
@@ -5307,7 +5518,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-3.8</v>
       </c>
@@ -5318,7 +5529,7 @@
         <v>-6.36</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-3.5999999999999996</v>
       </c>
@@ -5329,7 +5540,7 @@
         <v>-6.6400000000000006</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-3.3999999999999995</v>
       </c>
@@ -5340,7 +5551,7 @@
         <v>-6.8400000000000007</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-3.1999999999999993</v>
       </c>
@@ -5351,7 +5562,7 @@
         <v>-6.96</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-3</v>
       </c>
@@ -5362,7 +5573,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-2.8</v>
       </c>
@@ -5373,7 +5584,7 @@
         <v>-6.96</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-2.5999999999999996</v>
       </c>
@@ -5384,7 +5595,7 @@
         <v>-6.84</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-2.3999999999999995</v>
       </c>
@@ -5395,7 +5606,7 @@
         <v>-6.64</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-2.1999999999999993</v>
       </c>
@@ -5406,7 +5617,7 @@
         <v>-6.3599999999999985</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-2</v>
       </c>
@@ -5417,7 +5628,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-1.7999999999999998</v>
       </c>
@@ -5428,7 +5639,7 @@
         <v>-5.56</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-1.5999999999999996</v>
       </c>
@@ -5439,7 +5650,7 @@
         <v>-5.0399999999999991</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-1.3999999999999995</v>
       </c>
@@ -5450,7 +5661,7 @@
         <v>-4.4399999999999977</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-1.1999999999999993</v>
       </c>
@@ -5461,7 +5672,7 @@
         <v>-3.7599999999999976</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-1</v>
       </c>
@@ -5476,7 +5687,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-0.79999999999999893</v>
       </c>
@@ -5487,7 +5698,7 @@
         <v>-3.24888888888889</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-0.59999999999999964</v>
       </c>
@@ -5498,7 +5709,7 @@
         <v>-3.4622222222222225</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-0.40000000000000036</v>
       </c>
@@ -5509,7 +5720,7 @@
         <v>-3.6399999999999997</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>-0.19999999999999929</v>
       </c>
@@ -5520,7 +5731,7 @@
         <v>-3.7822222222222228</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0</v>
       </c>
@@ -5531,7 +5742,7 @@
         <v>-3.8888888888888888</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0.20000000000000107</v>
       </c>
@@ -5542,7 +5753,7 @@
         <v>-3.9600000000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0.40000000000000036</v>
       </c>
@@ -5553,7 +5764,7 @@
         <v>-3.9955555555555557</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0.60000000000000142</v>
       </c>
@@ -5564,7 +5775,7 @@
         <v>-3.9955555555555553</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0.80000000000000071</v>
       </c>
@@ -5575,7 +5786,7 @@
         <v>-3.96</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
@@ -5586,7 +5797,7 @@
         <v>-3.8888888888888888</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1.2000000000000011</v>
       </c>
@@ -5597,7 +5808,7 @@
         <v>-3.7822222222222215</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1.4000000000000004</v>
       </c>
@@ -5608,7 +5819,7 @@
         <v>-3.6399999999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1.6000000000000014</v>
       </c>
@@ -5619,7 +5830,7 @@
         <v>-3.4622222222222208</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1.8000000000000007</v>
       </c>
@@ -5630,7 +5841,7 @@
         <v>-3.2488888888888878</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2</v>
       </c>
@@ -5645,7 +5856,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2.2000000000000011</v>
       </c>
@@ -5656,7 +5867,7 @@
         <v>-3.7600000000000038</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2.4000000000000004</v>
       </c>
@@ -5667,7 +5878,7 @@
         <v>-4.4400000000000013</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2.6000000000000014</v>
       </c>
@@ -5678,7 +5889,7 @@
         <v>-5.0400000000000045</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2.8000000000000007</v>
       </c>
@@ -5689,7 +5900,7 @@
         <v>-5.5600000000000014</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>3</v>
       </c>
@@ -5700,7 +5911,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>3.2000000000000011</v>
       </c>
@@ -5711,7 +5922,7 @@
         <v>-6.3600000000000012</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>3.4000000000000004</v>
       </c>
@@ -5722,7 +5933,7 @@
         <v>-6.6400000000000006</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>3.6000000000000014</v>
       </c>
@@ -5733,7 +5944,7 @@
         <v>-6.8400000000000007</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>3.8000000000000007</v>
       </c>
@@ -5744,7 +5955,7 @@
         <v>-6.96</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>4</v>
       </c>
@@ -5759,7 +5970,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>4.2000000000000011</v>
       </c>
@@ -5770,7 +5981,7 @@
         <v>-6.96</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>4.4000000000000004</v>
       </c>
@@ -5781,7 +5992,7 @@
         <v>-6.84</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>4.6000000000000014</v>
       </c>
@@ -5792,7 +6003,7 @@
         <v>-6.6399999999999979</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>4.8000000000000007</v>
       </c>
@@ -5803,7 +6014,7 @@
         <v>-6.3599999999999985</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>5</v>
       </c>
@@ -5814,7 +6025,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>5.2000000000000011</v>
       </c>
@@ -5825,7 +6036,7 @@
         <v>-5.5599999999999969</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>5.4</v>
       </c>
@@ -5836,7 +6047,7 @@
         <v>-5.0399999999999991</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>5.6000000000000014</v>
       </c>
@@ -5847,7 +6058,7 @@
         <v>-4.4399999999999959</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>5.8000000000000007</v>
       </c>
@@ -5858,7 +6069,7 @@
         <v>-3.7599999999999976</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>6</v>
       </c>
@@ -5873,7 +6084,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>6.2000000000000011</v>
       </c>
@@ -5884,7 +6095,7 @@
         <v>-2.3999999999999968</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>6.4</v>
       </c>
@@ -5895,7 +6106,7 @@
         <v>-1.7999999999999989</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>6.6000000000000014</v>
       </c>
@@ -5906,7 +6117,7 @@
         <v>-1.1999999999999957</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>6.8000000000000007</v>
       </c>
@@ -5917,7 +6128,7 @@
         <v>-0.59999999999999787</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>7</v>
       </c>
@@ -5928,7 +6139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>7.1999999999999993</v>
       </c>
@@ -5939,7 +6150,7 @@
         <v>0.59999999999999787</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>7.4000000000000021</v>
       </c>
@@ -5950,7 +6161,7 @@
         <v>1.2000000000000064</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>7.6000000000000014</v>
       </c>
@@ -5961,7 +6172,7 @@
         <v>1.8000000000000043</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>7.8000000000000007</v>
       </c>
@@ -5972,7 +6183,7 @@
         <v>2.4000000000000021</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>8</v>
       </c>
@@ -5987,7 +6198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>8.1999999999999993</v>
       </c>
@@ -5998,7 +6209,7 @@
         <v>2.620000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>8.4000000000000021</v>
       </c>
@@ -6009,7 +6220,7 @@
         <v>2.2799999999999967</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>8.6000000000000014</v>
       </c>
@@ -6020,7 +6231,7 @@
         <v>1.979999999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>8.8000000000000007</v>
       </c>
@@ -6031,7 +6242,7 @@
         <v>1.7199999999999993</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>9</v>
       </c>
@@ -6042,7 +6253,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>9.1999999999999993</v>
       </c>
@@ -6053,7 +6264,7 @@
         <v>1.3200000000000005</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>9.4000000000000021</v>
       </c>
@@ -6064,7 +6275,7 @@
         <v>1.1799999999999988</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>9.6000000000000014</v>
       </c>
@@ -6075,7 +6286,7 @@
         <v>1.0799999999999994</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>9.8000000000000007</v>
       </c>
@@ -6086,7 +6297,7 @@
         <v>1.0199999999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>10</v>
       </c>
@@ -6097,7 +6308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>10.200000000000003</v>
       </c>
@@ -6108,7 +6319,7 @@
         <v>1.0200000000000005</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>10.400000000000002</v>
       </c>
@@ -6119,7 +6330,7 @@
         <v>1.080000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>10.600000000000001</v>
       </c>
@@ -6130,7 +6341,7 @@
         <v>1.1800000000000008</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>10.8</v>
       </c>
@@ -6141,7 +6352,7 @@
         <v>1.3200000000000005</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>11</v>
       </c>
@@ -6152,7 +6363,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>11.200000000000003</v>
       </c>
@@ -6163,7 +6374,7 @@
         <v>1.7200000000000033</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>11.400000000000002</v>
       </c>
@@ -6174,7 +6385,7 @@
         <v>1.9800000000000031</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>11.600000000000001</v>
       </c>
@@ -6185,7 +6396,7 @@
         <v>2.280000000000002</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>11.8</v>
       </c>
@@ -6196,7 +6407,7 @@
         <v>2.620000000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>12</v>
       </c>
@@ -6221,9 +6432,9 @@
       <selection sqref="A1:G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6246,7 +6457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-12</v>
       </c>
@@ -6259,7 +6470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-11</v>
       </c>
@@ -6270,7 +6481,7 @@
         <v>4.875</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-10</v>
       </c>
@@ -6281,7 +6492,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-9</v>
       </c>
@@ -6292,7 +6503,7 @@
         <v>5.875</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-8</v>
       </c>
@@ -6303,7 +6514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-7</v>
       </c>
@@ -6314,7 +6525,7 @@
         <v>5.875</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-6</v>
       </c>
@@ -6325,7 +6536,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-5</v>
       </c>
@@ -6336,7 +6547,7 @@
         <v>4.875</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-4</v>
       </c>
@@ -6359,7 +6570,7 @@
         <v>-8.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-3</v>
       </c>
@@ -6376,7 +6587,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-2</v>
       </c>
@@ -6393,7 +6604,7 @@
         <v>-8.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-1</v>
       </c>
@@ -6410,7 +6621,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -6427,7 +6638,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -6438,7 +6649,7 @@
         <v>5.875</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -6449,7 +6660,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -6460,7 +6671,7 @@
         <v>4.875</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
@@ -6475,7 +6686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -6486,7 +6697,7 @@
         <v>4.875</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6</v>
       </c>
@@ -6497,7 +6708,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>7</v>
       </c>
@@ -6508,7 +6719,7 @@
         <v>5.875</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>8</v>
       </c>
@@ -6519,7 +6730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>9</v>
       </c>
@@ -6530,7 +6741,7 @@
         <v>5.875</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10</v>
       </c>
@@ -6541,7 +6752,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>11</v>
       </c>
@@ -6552,7 +6763,7 @@
         <v>4.875</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>12</v>
       </c>
@@ -6573,13 +6784,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{323479EE-ABC2-4182-B806-1E74908B70C6}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6602,7 +6813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-12</v>
       </c>
@@ -6615,7 +6826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-11</v>
       </c>
@@ -6626,7 +6837,7 @@
         <v>4.875</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-10</v>
       </c>
@@ -6637,7 +6848,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-9</v>
       </c>
@@ -6648,7 +6859,7 @@
         <v>5.875</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-8</v>
       </c>
@@ -6659,7 +6870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-7</v>
       </c>
@@ -6670,7 +6881,7 @@
         <v>5.875</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-6</v>
       </c>
@@ -6681,7 +6892,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-5</v>
       </c>
@@ -6692,7 +6903,7 @@
         <v>4.875</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-4</v>
       </c>
@@ -6715,7 +6926,7 @@
         <v>-8.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-3</v>
       </c>
@@ -6732,7 +6943,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-2</v>
       </c>
@@ -6749,7 +6960,7 @@
         <v>-8.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-1</v>
       </c>
@@ -6766,7 +6977,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -6783,7 +6994,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -6794,7 +7005,7 @@
         <v>5.875</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -6805,7 +7016,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -6816,7 +7027,7 @@
         <v>4.875</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
@@ -6831,7 +7042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -6842,7 +7053,7 @@
         <v>4.875</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6</v>
       </c>
@@ -6853,7 +7064,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>7</v>
       </c>
@@ -6864,7 +7075,7 @@
         <v>5.875</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>8</v>
       </c>
@@ -6875,7 +7086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>9</v>
       </c>
@@ -6886,7 +7097,7 @@
         <v>5.875</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10</v>
       </c>
@@ -6897,7 +7108,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>11</v>
       </c>
@@ -6908,7 +7119,7 @@
         <v>4.875</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>12</v>
       </c>
@@ -6923,4 +7134,545 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89CFDB85-E4EE-4427-A5F4-2C5E0BAC1061}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10">
+        <f ca="1">TODAY()</f>
+        <v>44956</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6">
+        <v>31.5</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>300</v>
+      </c>
+      <c r="D5" s="8">
+        <f>C5*$C$3</f>
+        <v>9450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="7">
+        <v>100</v>
+      </c>
+      <c r="D6" s="8">
+        <f t="shared" ref="D6:D11" si="0">C6*$C$3</f>
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="7">
+        <v>50</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" si="0"/>
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="7">
+        <v>400</v>
+      </c>
+      <c r="D8" s="8">
+        <f t="shared" si="0"/>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1200</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="0"/>
+        <v>37800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>6</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="7">
+        <v>700</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" si="0"/>
+        <v>22050</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="7">
+        <v>200</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" si="0"/>
+        <v>6300</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35671BC7-FE9A-459B-A728-8E6C891475B9}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1">
+        <v>67.5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1350</v>
+      </c>
+      <c r="C3" s="5">
+        <f>B3*$B$1</f>
+        <v>91125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="4">
+        <v>450</v>
+      </c>
+      <c r="C4" s="5">
+        <f t="shared" ref="C4:C7" si="0">B4*$B$1</f>
+        <v>30375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1180</v>
+      </c>
+      <c r="C5" s="5">
+        <f t="shared" si="0"/>
+        <v>79650</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="4">
+        <v>780</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" si="0"/>
+        <v>52650</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="4">
+        <v>560</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" si="0"/>
+        <v>37800</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489A3C10-0F37-4898-8BC0-6AF71D546C04}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="14">
+        <v>70</v>
+      </c>
+      <c r="D2" s="17">
+        <f>C2*$A$12</f>
+        <v>2359</v>
+      </c>
+      <c r="E2" s="11">
+        <v>10</v>
+      </c>
+      <c r="F2" s="18">
+        <f>D2*E2</f>
+        <v>23590</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="14">
+        <v>900</v>
+      </c>
+      <c r="D3" s="17">
+        <f t="shared" ref="D3:D11" si="0">C3*$A$12</f>
+        <v>30330.000000000004</v>
+      </c>
+      <c r="E3" s="11">
+        <v>4</v>
+      </c>
+      <c r="F3" s="18">
+        <f t="shared" ref="F3:F11" si="1">D3*E3</f>
+        <v>121320.00000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="14">
+        <v>60</v>
+      </c>
+      <c r="D4" s="17">
+        <f t="shared" si="0"/>
+        <v>2022.0000000000002</v>
+      </c>
+      <c r="E4" s="11">
+        <v>3</v>
+      </c>
+      <c r="F4" s="18">
+        <f t="shared" si="1"/>
+        <v>6066.0000000000009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="14">
+        <v>150</v>
+      </c>
+      <c r="D5" s="17">
+        <f t="shared" si="0"/>
+        <v>5055</v>
+      </c>
+      <c r="E5" s="11">
+        <v>3</v>
+      </c>
+      <c r="F5" s="18">
+        <f t="shared" si="1"/>
+        <v>15165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="14">
+        <v>600</v>
+      </c>
+      <c r="D6" s="17">
+        <f t="shared" si="0"/>
+        <v>20220</v>
+      </c>
+      <c r="E6" s="11">
+        <v>2</v>
+      </c>
+      <c r="F6" s="18">
+        <f t="shared" si="1"/>
+        <v>40440</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="14">
+        <v>300</v>
+      </c>
+      <c r="D7" s="17">
+        <f t="shared" si="0"/>
+        <v>10110</v>
+      </c>
+      <c r="E7" s="11">
+        <v>3</v>
+      </c>
+      <c r="F7" s="18">
+        <f t="shared" si="1"/>
+        <v>30330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="14">
+        <v>70</v>
+      </c>
+      <c r="D8" s="17">
+        <f t="shared" si="0"/>
+        <v>2359</v>
+      </c>
+      <c r="E8" s="11">
+        <v>11</v>
+      </c>
+      <c r="F8" s="18">
+        <f t="shared" si="1"/>
+        <v>25949</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="14">
+        <v>65</v>
+      </c>
+      <c r="D9" s="17">
+        <f t="shared" si="0"/>
+        <v>2190.5</v>
+      </c>
+      <c r="E9" s="11">
+        <v>9</v>
+      </c>
+      <c r="F9" s="18">
+        <f t="shared" si="1"/>
+        <v>19714.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="14">
+        <v>400</v>
+      </c>
+      <c r="D10" s="17">
+        <f t="shared" si="0"/>
+        <v>13480.000000000002</v>
+      </c>
+      <c r="E10" s="11">
+        <v>5</v>
+      </c>
+      <c r="F10" s="18">
+        <f t="shared" si="1"/>
+        <v>67400.000000000015</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="14">
+        <v>40</v>
+      </c>
+      <c r="D11" s="17">
+        <f t="shared" si="0"/>
+        <v>1348</v>
+      </c>
+      <c r="E11" s="11">
+        <v>12</v>
+      </c>
+      <c r="F11" s="18">
+        <f t="shared" si="1"/>
+        <v>16176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>33.700000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>